--- a/biology/Médecine/Clarence_Crafoord/Clarence_Crafoord.xlsx
+++ b/biology/Médecine/Clarence_Crafoord/Clarence_Crafoord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarence Crafoord (1899 - 1984) est un chirurgien cardio-vasculaire suédois, spécialiste de la chirurgie cardio-vasculaire et de la chirurgie thoracique.
 Il a obtenu sa licence en médecine à Stockholm en 1924 et son doctorat en médecine en 1938. De 1939-1957 il a été chirurgien en chef à l'Hôpital de Sabbatsberg à Stockholm (où il travaillait depuis 1928) et de 1957 à 1966 chef du département de chirurgie thoracique à cet hôpital, et parallèlement de 1948 à 1966 professeur à l'Institut Karolinska, où il enseignait depuis 1940.
@@ -516,7 +528,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Raymond Havard</t>
         </is>
